--- a/doc/50_単体テスト(UT)/02_エビデンス/CSU_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/CSU_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenic\Downloads\certificate-online-dev\doc\50_単体テスト(UT)\02_エビデンス\CSU_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC31120-C9FE-4B39-A61D-B331425B6952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E5401B-ECC7-45BC-B0BC-0DF9C0B3BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="832" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="832" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
@@ -820,22 +820,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>42069</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21421</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123133</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>658042</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>37381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EF7788-F664-46EC-8F9D-5FEA939533C7}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97672792-A3CF-B60A-D1C8-2975F6260368}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -851,8 +851,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42069" y="3817620"/>
-          <a:ext cx="6684952" cy="3849313"/>
+          <a:off x="0" y="3657600"/>
+          <a:ext cx="8704762" cy="5752381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -901,50 +901,6 @@
         <a:xfrm>
           <a:off x="0" y="424541"/>
           <a:ext cx="14681916" cy="8063781"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>63028</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>208324</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA34B80-6849-7159-39EF-689554350DC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8686800"/>
-          <a:ext cx="18285714" cy="9809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,6 +1051,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>119744</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>41096</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EC1DD7-3EF4-1026-BDA4-A6BAD1DFF4CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="119744" y="8588829"/>
+          <a:ext cx="8695238" cy="5723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1136,50 +1136,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="14590476" cy="9380952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28024</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>160933</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48D97BF-6831-5EC1-0FF8-CFD8A40D4F87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9892145"/>
-          <a:ext cx="11333333" cy="7933333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1259,75 +1215,48 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>277091</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>207819</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>221672</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A667F2-EEB1-4DF2-9EA9-6D37E3E77FCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3602182" y="14339455"/>
-          <a:ext cx="2867891" cy="249381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489055</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>162081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759A4D58-850E-6114-CBE0-8DC87E7D5202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69273" y="9795164"/>
+          <a:ext cx="8400000" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2467,6 +2396,116 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>547496</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>210489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F2B899-2256-A3FA-E343-DF64112C57FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7719060"/>
+          <a:ext cx="7253096" cy="3464229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5785B00-EC29-43D3-B9E3-7289CF8E7757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2080260" y="9631680"/>
+          <a:ext cx="3147060" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2558,6 +2597,72 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0560B530-BED6-B8B6-EE95-5FE1E5A2462D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="5722620"/>
+          <a:ext cx="4107180" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2861,7 +2966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="W7:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
@@ -2938,7 +3043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9245839-FD90-4088-BA8B-87BF4D406ED7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
@@ -2952,7 +3059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF54CB6-E1DA-474F-8976-65F24567EE7E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
@@ -2968,7 +3075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E647BCE-FFBC-4E2B-8FBB-2B2B42E46E29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
@@ -2984,7 +3091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3CC5CA-449C-4AF9-95E0-38EDA2709C00}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -3014,7 +3121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C712E681-B95E-4EE9-A363-D8DE8F390BAF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
@@ -3028,7 +3135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBED7CE3-8C2E-45A0-A918-BA6E3852CF2F}">
   <dimension ref="P9:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -3060,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122443EF-38FD-4AB3-A1FC-5176F5A434B6}">
   <dimension ref="L11:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3087,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65D193A-7337-4995-81E7-19BDA0A69581}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
